--- a/log.xlsx
+++ b/log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marius\Desktop\FH_Technikum\4Semester\CGE\CGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krott\Documents\CGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8693092D-D12C-4642-83CD-649EF0273254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2E4F4-B57B-4153-A255-2908C95080EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Marius Hochwald</t>
   </si>
@@ -41,15 +41,9 @@
     <t>removing a cout and adding some "random" rotation to trees</t>
   </si>
   <si>
-    <t>deleting some stuff adding trees</t>
-  </si>
-  <si>
     <t>fixing the light problem in general and espacially the trees</t>
   </si>
   <si>
-    <t>fixinf all the texture stuff adding tree.obj, adding singelton to noise</t>
-  </si>
-  <si>
     <t>code cleanup, change backgrund color, adding effeiciency by precalculation P*V</t>
   </si>
   <si>
@@ -62,36 +56,9 @@
     <t>adjusting plain settings stacking noisefuncitons</t>
   </si>
   <si>
-    <t>and god said let there be light</t>
-  </si>
-  <si>
-    <t>adding some color</t>
-  </si>
-  <si>
-    <t>tuneing soe plain parameters</t>
-  </si>
-  <si>
     <t>adding plain generator</t>
   </si>
   <si>
-    <t>adding stuff</t>
-  </si>
-  <si>
-    <t>add stuff to ignore</t>
-  </si>
-  <si>
-    <t>bug fix</t>
-  </si>
-  <si>
-    <t>adding glm and stuff</t>
-  </si>
-  <si>
-    <t>add gitignor rm src</t>
-  </si>
-  <si>
-    <t>init commit</t>
-  </si>
-  <si>
     <t>Daniel Krottendorfer</t>
   </si>
   <si>
@@ -132,6 +99,33 @@
   </si>
   <si>
     <t>1/2 h</t>
+  </si>
+  <si>
+    <t>adding glm replacing vsMath</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">init commit,  gitignor </t>
+  </si>
+  <si>
+    <t>adding some color to plain with height</t>
+  </si>
+  <si>
+    <t>light shaderprogram</t>
+  </si>
+  <si>
+    <t>adding tree.obj, adding "singelton" to noise</t>
+  </si>
+  <si>
+    <t>deleting unused code ,placing trees</t>
+  </si>
+  <si>
+    <t>tuneing  plain parameters</t>
   </si>
 </sst>
 </file>
@@ -973,15 +967,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="76.7109375" customWidth="1"/>
@@ -989,16 +983,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,10 +1003,10 @@
         <v>43997</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,7 +1017,7 @@
         <v>43997</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -1031,57 +1025,72 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>43997</v>
       </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>43997</v>
       </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>43997</v>
       </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>43996</v>
       </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>43996</v>
       </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,49 +1101,52 @@
         <v>43996</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>43996</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>43995</v>
+        <v>43996</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>43995</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1142,137 +1154,125 @@
         <v>0</v>
       </c>
       <c r="B13" s="1">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B14" s="1">
         <v>43994</v>
       </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>43994</v>
       </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
         <v>43994</v>
       </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B18" s="1">
-        <v>43984</v>
+        <v>43993</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
-        <v>43982</v>
+        <v>43984</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <v>43982</v>
       </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
-        <v>43982</v>
+        <v>43980</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>43982</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1">
-        <v>43980</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1">
-        <v>43980</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
